--- a/example/transactions.xlsx
+++ b/example/transactions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Desktop/fifo_calculator/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Nextcloud/pyFIFOtax/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94196DB3-E326-D24C-A832-C7D284845868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E70F07B-3D65-FE44-845A-26FA0D748B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2220" windowWidth="51200" windowHeight="23440" xr2:uid="{258DE83D-C90A-AA43-91A0-3CBCDC3341E2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{258DE83D-C90A-AA43-91A0-3CBCDC3341E2}"/>
   </bookViews>
   <sheets>
     <sheet name="deposits" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
   <si>
     <t>NVDA</t>
   </si>
@@ -57,15 +57,6 @@
   </si>
   <si>
     <t>tax_withholding</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>RSU</t>
-  </si>
-  <si>
-    <t>ESPP</t>
   </si>
   <si>
     <t>quantity</t>
@@ -461,7 +452,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,17 +472,15 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -504,13 +493,10 @@
         <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -524,13 +510,10 @@
         <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -544,13 +527,10 @@
         <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -564,18 +544,15 @@
         <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>43749</v>
@@ -584,18 +561,15 @@
         <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>44845</v>
@@ -604,13 +578,10 @@
         <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -647,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -664,12 +635,12 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>44743</v>
@@ -681,7 +652,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -710,16 +681,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -739,7 +710,7 @@
         <v>0.03</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -759,7 +730,7 @@
         <v>0.03</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -779,7 +750,7 @@
         <v>0.01</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -799,12 +770,12 @@
         <v>0.02</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>44867</v>
@@ -819,12 +790,12 @@
         <v>0.01</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>44868</v>
@@ -839,12 +810,12 @@
         <v>0.01</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>44868</v>
@@ -859,12 +830,12 @@
         <v>0.01</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>44879</v>
@@ -879,7 +850,7 @@
         <v>0.01</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -906,13 +877,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -926,7 +897,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -940,7 +911,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/example/transactions.xlsx
+++ b/example/transactions.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="deposits" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="dividends" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="sales" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="wire_transfers" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="currency conversion to EUR" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -152,20 +152,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -360,57 +364,57 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="17.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="6.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>43524</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -418,19 +422,19 @@
       <c r="A3" s="1" t="n">
         <v>43889</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="2" t="n">
         <v>178</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -438,19 +442,19 @@
       <c r="A4" s="1" t="n">
         <v>44460</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>132</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -458,19 +462,19 @@
       <c r="A5" s="1" t="n">
         <v>44825</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -478,19 +482,19 @@
       <c r="A6" s="1" t="n">
         <v>43749</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -498,19 +502,19 @@
       <c r="A7" s="1" t="n">
         <v>44845</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -536,26 +540,26 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="14.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -563,16 +567,16 @@
       <c r="A2" s="1" t="n">
         <v>44652</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -580,16 +584,16 @@
       <c r="A3" s="1" t="n">
         <v>44743</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -615,28 +619,28 @@
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -644,19 +648,19 @@
       <c r="A2" s="1" t="n">
         <v>43713</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="2" t="n">
         <v>0.03</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -664,19 +668,19 @@
       <c r="A3" s="1" t="n">
         <v>44809</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="2" t="n">
         <v>0.03</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -684,19 +688,19 @@
       <c r="A4" s="1" t="n">
         <v>44826</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -704,19 +708,19 @@
       <c r="A5" s="1" t="n">
         <v>44827</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="2" t="n">
         <v>171.5</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.02</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -724,19 +728,19 @@
       <c r="A6" s="1" t="n">
         <v>44867</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -744,19 +748,19 @@
       <c r="A7" s="1" t="n">
         <v>44868</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -764,19 +768,19 @@
       <c r="A8" s="1" t="n">
         <v>44868</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -784,19 +788,19 @@
       <c r="A9" s="1" t="n">
         <v>44879</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -818,27 +822,27 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -846,13 +850,13 @@
       <c r="A2" s="1" t="n">
         <v>44846</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="2" t="n">
         <v>9749.41</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -860,13 +864,13 @@
       <c r="A3" s="1" t="n">
         <v>44896</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>1574.96</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/example/transactions.xlsx
+++ b/example/transactions.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC508F39-04E0-B740-902D-160BFCFA1AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C081A8C-519B-2647-9040-A9195F59A742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="deposits" sheetId="1" r:id="rId1"/>
-    <sheet name="espp_plan" sheetId="9" r:id="rId2"/>
+    <sheet name="rsu" sheetId="1" r:id="rId1"/>
+    <sheet name="espp" sheetId="9" r:id="rId2"/>
     <sheet name="dividends" sheetId="2" r:id="rId3"/>
     <sheet name="buy_orders" sheetId="5" r:id="rId4"/>
     <sheet name="sell_orders" sheetId="3" r:id="rId5"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -108,12 +108,6 @@
   </si>
   <si>
     <t>source_fees</t>
-  </si>
-  <si>
-    <t>shares_purchased</t>
-  </si>
-  <si>
-    <t>total_cost</t>
   </si>
 </sst>
 </file>
@@ -433,7 +427,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" s="7">
         <v>20</v>
@@ -453,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
         <v>10</v>
@@ -473,7 +467,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
         <v>20</v>
@@ -493,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
         <v>5</v>
@@ -513,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
         <v>10</v>
@@ -533,19 +527,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E416E3-D6F6-3E46-B65F-097A6847118C}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="6"/>
-    <col min="2" max="2" width="16.83203125" style="7"/>
-    <col min="3" max="3" width="19.5" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="16.83203125" style="7"/>
+    <col min="2" max="16384" width="16.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -553,22 +545,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>45351</v>
       </c>
@@ -576,22 +565,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="7">
-        <v>7345.14</v>
+        <v>118.47</v>
       </c>
       <c r="D2" s="7">
-        <v>118.47</v>
+        <v>791.12</v>
       </c>
       <c r="E2" s="7">
-        <v>791.12</v>
-      </c>
-      <c r="F2" s="7">
         <v>62</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45169</v>
       </c>
@@ -599,18 +585,15 @@
         <v>5</v>
       </c>
       <c r="C3" s="7">
-        <v>4857.2700000000004</v>
+        <v>118.47</v>
       </c>
       <c r="D3" s="7">
-        <v>118.47</v>
+        <v>493.55</v>
       </c>
       <c r="E3" s="7">
-        <v>493.55</v>
-      </c>
-      <c r="F3" s="7">
         <v>41</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
     </row>

--- a/example/transactions.xlsx
+++ b/example/transactions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C081A8C-519B-2647-9040-A9195F59A742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F90FAA6-CB4F-BC4B-8573-9652635E13E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="buy_orders" sheetId="5" r:id="rId4"/>
     <sheet name="sell_orders" sheetId="3" r:id="rId5"/>
     <sheet name="currency_conversions" sheetId="4" r:id="rId6"/>
-    <sheet name="stock_splits" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
   <si>
     <t>date</t>
   </si>
@@ -90,9 +89,6 @@
   </si>
   <si>
     <t>buy_price</t>
-  </si>
-  <si>
-    <t>shares_after_split</t>
   </si>
   <si>
     <t>target_currency</t>
@@ -371,7 +367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -910,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -923,16 +919,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -949,7 +945,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -966,101 +962,11 @@
         <v>6</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A1EB0D-DD55-F846-B26C-F109373BD8B1}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>45450</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>44397</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>39336</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>38814</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>37146</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>36704</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/example/transactions.xlsx
+++ b/example/transactions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F90FAA6-CB4F-BC4B-8573-9652635E13E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D941A4C8-2098-5941-9935-70544FF77E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>source_fees</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -375,7 +378,7 @@
     <col min="2" max="16384" width="16.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -394,8 +397,11 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>43524</v>
       </c>
@@ -415,7 +421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>43889</v>
       </c>
@@ -435,7 +441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>44460</v>
       </c>
@@ -455,7 +461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>44825</v>
       </c>
@@ -475,7 +481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>43749</v>
       </c>
@@ -495,7 +501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>44845</v>
       </c>
@@ -523,7 +529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E416E3-D6F6-3E46-B65F-097A6847118C}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -533,7 +539,7 @@
     <col min="2" max="16384" width="16.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -552,8 +558,11 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>45351</v>
       </c>
@@ -573,7 +582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45169</v>
       </c>
@@ -601,7 +610,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +619,7 @@
     <col min="1" max="1" width="16.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -626,8 +635,12 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44652</v>
       </c>
@@ -644,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44743</v>
       </c>
@@ -697,7 +710,9 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -707,7 +722,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -716,7 +731,7 @@
     <col min="1" max="1" width="16.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -735,8 +750,11 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43713</v>
       </c>
@@ -756,7 +774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44809</v>
       </c>
@@ -776,7 +794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44826</v>
       </c>
@@ -796,7 +814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44827</v>
       </c>
@@ -816,7 +834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44867</v>
       </c>
@@ -836,7 +854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44868</v>
       </c>
@@ -856,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44868</v>
       </c>
@@ -876,7 +894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44879</v>
       </c>
@@ -904,7 +922,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -914,7 +932,7 @@
     <col min="2" max="16384" width="16.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -930,8 +948,11 @@
       <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>44846</v>
       </c>
@@ -948,7 +969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>44896</v>
       </c>

--- a/example/transactions.xlsx
+++ b/example/transactions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D941A4C8-2098-5941-9935-70544FF77E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856866E8-62E6-5747-BB70-9BCD748178AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="buy_orders" sheetId="5" r:id="rId4"/>
     <sheet name="sell_orders" sheetId="3" r:id="rId5"/>
     <sheet name="currency_conversions" sheetId="4" r:id="rId6"/>
+    <sheet name="currency_movements" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -107,6 +108,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>buy_date</t>
   </si>
 </sst>
 </file>
@@ -116,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +149,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -175,6 +185,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -924,7 +935,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -990,4 +1003,91 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413B3602-8121-5942-A389-F7BB3F804A41}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>45292</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44842</v>
+      </c>
+      <c r="C2" s="7">
+        <v>100</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>45293</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45293</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>45294</v>
+      </c>
+      <c r="B4" s="8">
+        <v>45294</v>
+      </c>
+      <c r="C4">
+        <v>-100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>45294</v>
+      </c>
+      <c r="B5" s="8">
+        <v>45294</v>
+      </c>
+      <c r="C5">
+        <v>-100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/example/transactions.xlsx
+++ b/example/transactions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856866E8-62E6-5747-BB70-9BCD748178AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62829B7B-0EDB-4741-B204-CF1359D18E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -1007,13 +1007,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413B3602-8121-5942-A389-F7BB3F804A41}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1024,13 +1024,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>45292</v>
       </c>
@@ -1040,12 +1043,15 @@
       <c r="C2" s="7">
         <v>100</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45293</v>
       </c>
@@ -1055,11 +1061,14 @@
       <c r="C3">
         <v>100</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>45294</v>
       </c>
@@ -1067,13 +1076,16 @@
         <v>45294</v>
       </c>
       <c r="C4">
-        <v>-100</v>
-      </c>
-      <c r="D4" t="s">
+        <v>-98</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>45294</v>
       </c>
@@ -1081,9 +1093,12 @@
         <v>45294</v>
       </c>
       <c r="C5">
-        <v>-100</v>
-      </c>
-      <c r="D5" t="s">
+        <v>-98</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>

--- a/example/transactions.xlsx
+++ b/example/transactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62829B7B-0EDB-4741-B204-CF1359D18E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B52C18E-DF11-204C-9EA0-584E23312CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="buy_orders" sheetId="5" r:id="rId4"/>
     <sheet name="sell_orders" sheetId="3" r:id="rId5"/>
     <sheet name="currency_conversions" sheetId="4" r:id="rId6"/>
-    <sheet name="currency_movements" sheetId="10" r:id="rId7"/>
+    <sheet name="money_transfers" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>

--- a/example/transactions.xlsx
+++ b/example/transactions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B52C18E-DF11-204C-9EA0-584E23312CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB081B3-1753-774D-A4FF-F1E4813CEB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -935,9 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -970,7 +968,7 @@
         <v>44846</v>
       </c>
       <c r="B2" s="7">
-        <v>9764.41</v>
+        <v>4000</v>
       </c>
       <c r="C2" s="7">
         <v>15</v>
@@ -987,7 +985,7 @@
         <v>44896</v>
       </c>
       <c r="B3" s="7">
-        <v>1589.96</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="7">
         <v>15</v>
@@ -1007,13 +1005,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413B3602-8121-5942-A389-F7BB3F804A41}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1031,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>45292</v>
       </c>
@@ -1051,56 +1049,52 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45293</v>
       </c>
-      <c r="B3" s="6">
-        <v>45293</v>
-      </c>
+      <c r="B3" s="6"/>
       <c r="C3">
-        <v>100</v>
+        <v>-4000</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>45294</v>
       </c>
-      <c r="B4" s="8">
-        <v>45294</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="C4">
-        <v>-98</v>
+        <v>-2000</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>45294</v>
       </c>
-      <c r="B5" s="8">
-        <v>45294</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5">
-        <v>-98</v>
+        <v>-2000</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example/transactions.xlsx
+++ b/example/transactions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB081B3-1753-774D-A4FF-F1E4813CEB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC07B6D8-DB91-A545-A9DD-0E3A73D47775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
   <si>
     <t>date</t>
   </si>
@@ -101,9 +101,6 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>foreign_amount</t>
-  </si>
-  <si>
     <t>source_fees</t>
   </si>
   <si>
@@ -111,6 +108,15 @@
   </si>
   <si>
     <t>buy_date</t>
+  </si>
+  <si>
+    <t>target_fees</t>
+  </si>
+  <si>
+    <t>source_amount</t>
+  </si>
+  <si>
+    <t>target_amount</t>
   </si>
 </sst>
 </file>
@@ -409,7 +415,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -570,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -647,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -722,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -762,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -933,9 +939,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -943,27 +949,33 @@
     <col min="2" max="16384" width="16.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>44846</v>
       </c>
@@ -976,11 +988,17 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>44896</v>
       </c>
@@ -993,7 +1011,13 @@
       <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1007,7 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413B3602-8121-5942-A389-F7BB3F804A41}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1016,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
@@ -1028,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">

--- a/example/transactions.xlsx
+++ b/example/transactions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC07B6D8-DB91-A545-A9DD-0E3A73D47775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED78DD4-9581-0B4D-8CD6-1F586226F57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -101,22 +101,19 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>source_fees</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
     <t>buy_date</t>
   </si>
   <si>
-    <t>target_fees</t>
-  </si>
-  <si>
     <t>source_amount</t>
   </si>
   <si>
     <t>target_amount</t>
+  </si>
+  <si>
+    <t>fee_currency</t>
   </si>
 </sst>
 </file>
@@ -387,7 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -415,7 +412,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -576,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -653,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -699,7 +696,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDFF433-2BAD-994E-8662-CF5793AE5261}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -708,7 +705,7 @@
     <col min="1" max="1" width="16.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -722,13 +719,16 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +739,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -748,7 +748,7 @@
     <col min="1" max="1" width="16.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,16 +762,20 @@
         <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43713</v>
       </c>
@@ -784,14 +788,17 @@
       <c r="D2">
         <v>156</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
         <v>0.03</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44809</v>
       </c>
@@ -804,14 +811,17 @@
       <c r="D3">
         <v>156</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
         <v>0.03</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44826</v>
       </c>
@@ -824,14 +834,17 @@
       <c r="D4">
         <v>166</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
         <v>0.01</v>
       </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44827</v>
       </c>
@@ -844,14 +857,17 @@
       <c r="D5">
         <v>171.5</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
         <v>0.02</v>
       </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44867</v>
       </c>
@@ -864,14 +880,17 @@
       <c r="D6">
         <v>110</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
         <v>0.01</v>
       </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44868</v>
       </c>
@@ -884,14 +903,17 @@
       <c r="D7">
         <v>120</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
         <v>0.01</v>
       </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44868</v>
       </c>
@@ -904,14 +926,17 @@
       <c r="D8">
         <v>70</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
         <v>0.01</v>
       </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44879</v>
       </c>
@@ -924,10 +949,13 @@
       <c r="D9">
         <v>100</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
         <v>0.01</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -941,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -954,25 +982,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -980,22 +1008,22 @@
         <v>44846</v>
       </c>
       <c r="B2" s="7">
-        <v>4000</v>
-      </c>
-      <c r="C2" s="7">
+        <v>3985</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1003,22 +1031,22 @@
         <v>44896</v>
       </c>
       <c r="B3" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="7">
+        <v>985</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1040,19 +1068,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1063,15 +1094,17 @@
         <v>44842</v>
       </c>
       <c r="C2" s="7">
-        <v>100</v>
-      </c>
-      <c r="D2">
+        <v>98</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -1079,12 +1112,15 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3">
-        <v>-4000</v>
-      </c>
-      <c r="D3">
+        <v>-3998</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1094,12 +1130,15 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4">
-        <v>-2000</v>
-      </c>
-      <c r="D4">
+        <v>-1998</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="7"/>
@@ -1112,10 +1151,13 @@
       <c r="C5">
         <v>-2000</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="7"/>

--- a/example/transactions.xlsx
+++ b/example/transactions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED78DD4-9581-0B4D-8CD6-1F586226F57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1172FC2-6809-334E-9122-E4FEA5C5BC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34400" yWindow="-15120" windowWidth="34400" windowHeight="26460" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -741,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/example/transactions.xlsx
+++ b/example/transactions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1172FC2-6809-334E-9122-E4FEA5C5BC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB890D66-74AC-C241-AB2D-BD4B9F87683F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34400" yWindow="-15120" windowWidth="34400" windowHeight="26460" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>APPL</t>
-  </si>
-  <si>
     <t>GOOG</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>fee_currency</t>
+  </si>
+  <si>
+    <t>AAPL</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -400,19 +400,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -500,7 +500,7 @@
         <v>43749</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>8</v>
@@ -520,7 +520,7 @@
         <v>44845</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7">
         <v>12</v>
@@ -561,19 +561,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -641,16 +641,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -676,7 +676,7 @@
         <v>44743</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -713,10 +713,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -725,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -741,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -756,10 +756,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -768,10 +768,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="3"/>
     </row>
@@ -872,7 +872,7 @@
         <v>44867</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -895,7 +895,7 @@
         <v>44868</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -918,7 +918,7 @@
         <v>44868</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -941,7 +941,7 @@
         <v>44879</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -982,25 +982,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1017,7 +1017,7 @@
         <v>-1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="7">
         <v>15</v>
@@ -1040,7 +1040,7 @@
         <v>-1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="7">
         <v>15</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
@@ -1080,10 +1080,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1152,13 +1152,13 @@
         <v>-2000</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7"/>
     </row>
